--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D72A7EB-727E-48CE-9CAC-2F5438987CE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC75F33-0A5A-4122-A396-37CFF6B47CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="122">
   <si>
     <t>Task</t>
   </si>
@@ -301,13 +301,106 @@
   </si>
   <si>
     <t>QMVAR CSS(Date Picker)</t>
+  </si>
+  <si>
+    <t>SONIYA Migration, selenium log Files(Sony, Samsung)</t>
+  </si>
+  <si>
+    <t>nMVAR Migration, selenium log Files(Sony, Samsung)</t>
+  </si>
+  <si>
+    <t>nMVAR Migration</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Soniya nMVAR_Search</t>
+  </si>
+  <si>
+    <t>Soniya nMVAR_Mtr</t>
+  </si>
+  <si>
+    <t>Soniya nMVAR_Report</t>
+  </si>
+  <si>
+    <t>Soniya nMVAR_Report, Nmvar_mtr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup Create exe, japanease languaeg </t>
+  </si>
+  <si>
+    <t>Soniya Bic_Report_soukatsu</t>
+  </si>
+  <si>
+    <t>Soniya Nmvar_TSS</t>
+  </si>
+  <si>
+    <t>Soniya, Nmvar_TSS</t>
+  </si>
+  <si>
+    <t>Soniya Nmvar_Report</t>
+  </si>
+  <si>
+    <t>Soniya Nmvar_Mtr, Nmvar_Search, Nmvar_Ai</t>
+  </si>
+  <si>
+    <t>Soniya Nmvar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best_search_all8, Best_Report </t>
+  </si>
+  <si>
+    <t>Wip</t>
+  </si>
+  <si>
+    <t>Soniya nMVAR_Search Completed</t>
+  </si>
+  <si>
+    <t>Soniya nMVAR_Mtr Completed</t>
+  </si>
+  <si>
+    <t>Selenium log file count , and Saw discount(uploading issue in QMVAR) . Soniya nMVAR_Mtr</t>
+  </si>
+  <si>
+    <t>Selenium log file count , QMVAR) . Soniya nMVAR_Report(Activity report working)</t>
+  </si>
+  <si>
+    <t>nMVAR_Report(Activity report working)</t>
+  </si>
+  <si>
+    <t>Setup Create exe, japanease languaeg not convert</t>
+  </si>
+  <si>
+    <t>Bic_Report_soukatsu Tessting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuctionality Testing completed </t>
+  </si>
+  <si>
+    <t>Processing(Activity Report)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processing(Activity Report), sony daily deleverd uplading issue find  </t>
+  </si>
+  <si>
+    <t>Setup_Create and testing</t>
+  </si>
+  <si>
+    <t>Nmvar Report Working</t>
+  </si>
+  <si>
+    <t>Due to rain(Power cut)</t>
+  </si>
+  <si>
+    <t>Issue Fixed, Setup Create all Modules(Soniya)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +441,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -455,7 +555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -507,6 +607,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1947,17 +2051,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -2011,85 +2115,463 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="1"/>
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44138</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44139</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44140</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.65</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="1"/>
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44141</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1"/>
-    <row r="9" spans="1:7" s="3" customFormat="1"/>
-    <row r="10" spans="1:7" s="3" customFormat="1"/>
-    <row r="11" spans="1:7" s="3" customFormat="1"/>
-    <row r="12" spans="1:7" s="3" customFormat="1"/>
-    <row r="13" spans="1:7" s="3" customFormat="1"/>
-    <row r="14" spans="1:7" s="3" customFormat="1"/>
-    <row r="15" spans="1:7" s="3" customFormat="1"/>
-    <row r="16" spans="1:7" s="3" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="5"/>
-      <c r="C20" t="s">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44144</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44145</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44146</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44147</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44148</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44151</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44152</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44153</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44154</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44155</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="28.8">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44158</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11">
+        <v>44159</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="22">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="15.6">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="11">
+        <v>44160</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="15.6">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <v>44161</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="15.6">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44162</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="22">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1"/>
+    <row r="23" spans="1:7" s="3" customFormat="1"/>
+    <row r="24" spans="1:7" s="3" customFormat="1"/>
+    <row r="25" spans="1:7" s="3" customFormat="1"/>
+    <row r="28" spans="1:7">
+      <c r="C28" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="5"/>
+      <c r="C29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="6"/>
-      <c r="C21" t="s">
+    <row r="30" spans="1:7">
+      <c r="B30" s="6"/>
+      <c r="C30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="7"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
+    <row r="31" spans="1:7">
+      <c r="B31" s="7"/>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC75F33-0A5A-4122-A396-37CFF6B47CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F91516-4D87-45C4-9ED2-09C84527D3E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="124">
   <si>
     <t>Task</t>
   </si>
@@ -394,6 +394,12 @@
   </si>
   <si>
     <t>Issue Fixed, Setup Create all Modules(Soniya)</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Setup Create exe's(Over all Soniya Projects)</t>
   </si>
 </sst>
 </file>
@@ -2053,8 +2059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2542,7 +2548,27 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1"/>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="15.6">
+      <c r="A22" s="23">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <v>44165</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="23" spans="1:7" s="3" customFormat="1"/>
     <row r="24" spans="1:7" s="3" customFormat="1"/>
     <row r="25" spans="1:7" s="3" customFormat="1"/>
@@ -2554,7 +2580,7 @@
     <row r="29" spans="1:7">
       <c r="B29" s="5"/>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:7">

--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F91516-4D87-45C4-9ED2-09C84527D3E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED1D9EA-37B5-4C86-876E-70ACD17C83F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="129">
   <si>
     <t>Task</t>
   </si>
@@ -400,13 +400,28 @@
   </si>
   <si>
     <t>Setup Create exe's(Over all Soniya Projects)</t>
+  </si>
+  <si>
+    <t>Besk Denki, Best Denki(oversease)</t>
+  </si>
+  <si>
+    <t>Stream, Koroganeya, MrMax</t>
+  </si>
+  <si>
+    <t>Soniya nMVAR, Nmvar_Report</t>
+  </si>
+  <si>
+    <t>Activity Report PDF Formating Check and Chenage</t>
+  </si>
+  <si>
+    <t>Nmvar_QA, Nmvar_TSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,12 +450,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,9 +570,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -584,28 +592,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -614,8 +610,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -951,534 +947,534 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
         <v>44075</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="10">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>44076</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A4" s="10">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>44077</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A5" s="10">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>44081</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
         <v>44082</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A7" s="10">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>44083</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A8" s="10">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>44084</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A9" s="10">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>44085</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A10" s="10">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>44088</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A11" s="10">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>44089</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A12" s="10">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>44090</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A13" s="10">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>44091</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A14" s="10">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>44092</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A15" s="10">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>44095</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A16" s="10">
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>44096</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A17" s="10">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="48" customHeight="1">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>44097</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A18" s="10">
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>44098</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="22">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="43.2">
-      <c r="A19" s="10">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="43.2">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>44099</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="22">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="16" t="s">
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A20" s="10">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>44102</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="22">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A21" s="10">
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>44103</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="22">
-        <v>1</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A22" s="10">
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="14.4" customHeight="1">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>44104</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="16" t="s">
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1"/>
-    <row r="24" spans="1:7" s="3" customFormat="1"/>
-    <row r="25" spans="1:7" s="3" customFormat="1"/>
-    <row r="26" spans="1:7" s="3" customFormat="1"/>
+    <row r="23" spans="1:7" s="2" customFormat="1"/>
+    <row r="24" spans="1:7" s="2" customFormat="1"/>
+    <row r="25" spans="1:7" s="2" customFormat="1"/>
+    <row r="26" spans="1:7" s="2" customFormat="1"/>
     <row r="29" spans="1:7" ht="14.4" customHeight="1">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="5"/>
+      <c r="B30" s="4"/>
       <c r="C30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="6"/>
+      <c r="B31" s="5"/>
       <c r="C31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="7"/>
+      <c r="B32" s="6"/>
       <c r="C32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="8"/>
+      <c r="B33" s="7"/>
       <c r="C33" t="s">
         <v>10</v>
       </c>
@@ -1509,542 +1505,542 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
         <v>44105</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="10">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>44109</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A4" s="10">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>44110</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A5" s="10">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>44111</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="16" t="s">
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
         <v>44112</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="16" t="s">
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A7" s="10">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>44113</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="16" t="s">
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A8" s="10">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>44116</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="16" t="s">
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A9" s="10">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>44117</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A10" s="10">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>44118</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A11" s="10">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>44119</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A12" s="10">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>44120</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A13" s="10">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>44123</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A14" s="10">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>44124</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="16" t="s">
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A15" s="10">
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>44125</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A16" s="10">
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>44126</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="16" t="s">
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A17" s="10">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>44127</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="16" t="s">
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A18" s="10">
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>44130</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="22">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A19" s="10">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="48" customHeight="1">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>44131</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="22">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="16" t="s">
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A20" s="10">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>44132</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="22">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A21" s="10">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>44133</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="22">
-        <v>1</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1">
-      <c r="A22" s="23">
+    <row r="22" spans="1:7" s="2" customFormat="1">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>44134</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="16" t="s">
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="14" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1"/>
-    <row r="24" spans="1:7" s="3" customFormat="1"/>
-    <row r="25" spans="1:7" s="3" customFormat="1"/>
-    <row r="26" spans="1:7" s="3" customFormat="1"/>
-    <row r="27" spans="1:7" s="3" customFormat="1"/>
-    <row r="28" spans="1:7" s="3" customFormat="1"/>
+    <row r="23" spans="1:7" s="2" customFormat="1"/>
+    <row r="24" spans="1:7" s="2" customFormat="1"/>
+    <row r="25" spans="1:7" s="2" customFormat="1"/>
+    <row r="26" spans="1:7" s="2" customFormat="1"/>
+    <row r="27" spans="1:7" s="2" customFormat="1"/>
+    <row r="28" spans="1:7" s="2" customFormat="1"/>
     <row r="31" spans="1:7">
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="5"/>
+      <c r="B32" s="4"/>
       <c r="C32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="6"/>
+      <c r="B33" s="5"/>
       <c r="C33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="7"/>
+      <c r="B34" s="6"/>
       <c r="C34" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="8"/>
+      <c r="B35" s="7"/>
       <c r="C35" t="s">
         <v>10</v>
       </c>
@@ -2059,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2075,528 +2071,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
         <v>44137</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="10">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>44138</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="24" t="s">
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A4" s="10">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>44139</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="17">
         <v>0.3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A5" s="10">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>44140</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="17">
         <v>0.65</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
         <v>44141</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="10">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="48" customHeight="1">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>44144</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A8" s="10">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>44145</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A9" s="10">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>44146</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A10" s="10">
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>44147</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="24" t="s">
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A11" s="10">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>44148</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A12" s="10">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>44151</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A13" s="10">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>44152</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="17">
         <v>0.75</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A14" s="10">
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>44153</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A15" s="10">
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>44154</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="17">
         <v>0.3</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A16" s="10">
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>44155</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="17">
         <v>0.6</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="28.8">
-      <c r="A17" s="10">
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>44158</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="10">
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>44159</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="22">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="13" t="s">
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="15.6">
-      <c r="A19" s="10">
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="15.6">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>44160</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="17">
         <v>0.1</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="15.6">
-      <c r="A20" s="10">
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="15.6">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>44161</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="15.6">
-      <c r="A21" s="10">
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="15.6">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>44162</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="22">
-        <v>1</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="15.6">
-      <c r="A22" s="23">
+    <row r="22" spans="1:7" s="2" customFormat="1" ht="15.6">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>44165</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="5" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1"/>
-    <row r="24" spans="1:7" s="3" customFormat="1"/>
-    <row r="25" spans="1:7" s="3" customFormat="1"/>
+    <row r="23" spans="1:7" s="2" customFormat="1"/>
+    <row r="24" spans="1:7" s="2" customFormat="1"/>
+    <row r="25" spans="1:7" s="2" customFormat="1"/>
     <row r="28" spans="1:7">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="B29" s="5"/>
+      <c r="B29" s="4"/>
       <c r="C29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="B30" s="6"/>
+      <c r="B30" s="5"/>
       <c r="C30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="B31" s="7"/>
+      <c r="B31" s="6"/>
       <c r="C31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="B32" s="8"/>
+      <c r="B32" s="7"/>
       <c r="C32" t="s">
         <v>10</v>
       </c>
@@ -2609,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2627,117 +2623,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="26.4" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" ht="28.2" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="25.95" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="48" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1"/>
-    <row r="9" spans="1:7" s="3" customFormat="1"/>
-    <row r="10" spans="1:7" s="3" customFormat="1"/>
-    <row r="11" spans="1:7" s="3" customFormat="1"/>
-    <row r="12" spans="1:7" s="3" customFormat="1"/>
-    <row r="13" spans="1:7" s="3" customFormat="1"/>
-    <row r="14" spans="1:7" s="3" customFormat="1"/>
-    <row r="15" spans="1:7" s="3" customFormat="1"/>
-    <row r="16" spans="1:7" s="3" customFormat="1"/>
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44166</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="26.4" customHeight="1">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44167</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="28.2" customHeight="1">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44168</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44169</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1"/>
+    <row r="7" spans="1:7" s="2" customFormat="1"/>
+    <row r="8" spans="1:7" s="2" customFormat="1"/>
+    <row r="9" spans="1:7" s="2" customFormat="1"/>
+    <row r="10" spans="1:7" s="2" customFormat="1"/>
+    <row r="11" spans="1:7" s="2" customFormat="1"/>
+    <row r="12" spans="1:7" s="2" customFormat="1"/>
+    <row r="13" spans="1:7" s="2" customFormat="1"/>
+    <row r="14" spans="1:7" s="2" customFormat="1"/>
+    <row r="17" spans="2:3">
+      <c r="C17" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="19" spans="2:3">
-      <c r="C19" s="9" t="s">
-        <v>1</v>
+      <c r="B19" s="5"/>
+      <c r="C19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="6"/>
+      <c r="B21" s="7"/>
       <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="7"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED1D9EA-37B5-4C86-876E-70ACD17C83F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE2D2C2-2C05-4B98-8C5A-127AB6EC27C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="142">
   <si>
     <t>Task</t>
   </si>
@@ -415,6 +415,45 @@
   </si>
   <si>
     <t>Nmvar_QA, Nmvar_TSS</t>
+  </si>
+  <si>
+    <t>Nmvar</t>
+  </si>
+  <si>
+    <t>Nmvar(TSS, QA)</t>
+  </si>
+  <si>
+    <t>Nmvar(mtr, Report)</t>
+  </si>
+  <si>
+    <t>Nmvar(Search, AI)</t>
+  </si>
+  <si>
+    <t>Retest Issues Fixing</t>
+  </si>
+  <si>
+    <t>Nmvar Overall setup create</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nmvar overall setup testing, </t>
+  </si>
+  <si>
+    <t>November monthly Files also testing</t>
+  </si>
+  <si>
+    <t>Selenium log file Testing (QMVAR TO GSPN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log files</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log files, Soniya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium log file Testing (QMVAR TO GSPN), Soniya STRM </t>
+  </si>
+  <si>
+    <t>Soniya STRM File Export testing</t>
   </si>
 </sst>
 </file>
@@ -1489,8 +1528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2055,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C3C8C-E600-4385-B0F3-62EAE0B72AB6}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2605,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2737,41 +2776,238 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1"/>
-    <row r="7" spans="1:7" s="2" customFormat="1"/>
-    <row r="8" spans="1:7" s="2" customFormat="1"/>
-    <row r="9" spans="1:7" s="2" customFormat="1"/>
-    <row r="10" spans="1:7" s="2" customFormat="1"/>
-    <row r="11" spans="1:7" s="2" customFormat="1"/>
-    <row r="12" spans="1:7" s="2" customFormat="1"/>
-    <row r="13" spans="1:7" s="2" customFormat="1"/>
-    <row r="14" spans="1:7" s="2" customFormat="1"/>
-    <row r="17" spans="2:3">
-      <c r="C17" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="15.6">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44172</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="15.6">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44173</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="15.6">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44174</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="15.6">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44175</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44176</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44176</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44149</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44150</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="28.8">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44151</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1"/>
     <row r="18" spans="2:3">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s">
+      <c r="C18" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="5"/>
-      <c r="C19" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="5"/>
+      <c r="C20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="6"/>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="7"/>
+      <c r="B21" s="6"/>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="7"/>
+      <c r="C22" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE2D2C2-2C05-4B98-8C5A-127AB6EC27C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD5F1EA-79F2-4770-B82D-1F187C59AE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="144">
   <si>
     <t>Task</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>Soniya STRM File Export testing</t>
+  </si>
+  <si>
+    <t>Bic_Report_Soukastu Setup Create</t>
+  </si>
+  <si>
+    <t>Selenium log file Testing (QMVAR TO GSPN), Bic_Report_Soukastu</t>
   </si>
 </sst>
 </file>
@@ -2647,7 +2653,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2981,7 +2987,50 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1"/>
+    <row r="15" spans="1:7" s="2" customFormat="1">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44152</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.8">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44153</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
     <row r="18" spans="2:3">
       <c r="C18" s="8" t="s">
         <v>1</v>

--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD5F1EA-79F2-4770-B82D-1F187C59AE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FDCA86-C869-461C-AF6B-0F1DFEB9F8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="148">
   <si>
     <t>Task</t>
   </si>
@@ -460,6 +460,18 @@
   </si>
   <si>
     <t>Selenium log file Testing (QMVAR TO GSPN), Bic_Report_Soukastu</t>
+  </si>
+  <si>
+    <t>Selenium log file Testing (QMVAR TO GSPN), Soniya</t>
+  </si>
+  <si>
+    <t>Soniya Over all Setup Modification(2021 Change)</t>
+  </si>
+  <si>
+    <t>Soniya Over all Setup Modification(2021 remove program name)</t>
+  </si>
+  <si>
+    <t>Soniya 2021 Change STRM in single Folder</t>
   </si>
 </sst>
 </file>
@@ -615,7 +627,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -657,6 +669,24 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2650,10 +2680,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3031,32 +3061,131 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="C18" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="4"/>
-      <c r="C19" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44156</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44157</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44158</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44159</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="4"/>
+      <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="5"/>
-      <c r="C20" t="s">
+    <row r="24" spans="1:7">
+      <c r="B24" s="5"/>
+      <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="6"/>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="7"/>
-      <c r="C22" t="s">
+    <row r="25" spans="1:7">
+      <c r="B25" s="6"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="7"/>
+      <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FDCA86-C869-461C-AF6B-0F1DFEB9F8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89951A3E-3698-4E83-B6B4-94664D3A4686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2683,7 +2683,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3138,7 +3138,7 @@
         <v>44159</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>137</v>

--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89951A3E-3698-4E83-B6B4-94664D3A4686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891F8817-9B98-496C-B7B9-6714BF216B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="151">
   <si>
     <t>Task</t>
   </si>
@@ -444,12 +444,6 @@
     <t>Selenium log file Testing (QMVAR TO GSPN)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Selenium log files</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log files, Soniya</t>
-  </si>
-  <si>
     <t xml:space="preserve">Selenium log file Testing (QMVAR TO GSPN), Soniya STRM </t>
   </si>
   <si>
@@ -472,6 +466,21 @@
   </si>
   <si>
     <t>Soniya 2021 Change STRM in single Folder</t>
+  </si>
+  <si>
+    <t>MrMax_REP design changes, best_ivc_close (Best Denki over all) setup create</t>
+  </si>
+  <si>
+    <t>STRM_import(Client Changes modification) and Setup Create, best_ivc_Close_rerturn(Modification design) and Setup create, best_ivc_close(Modification design) and Setup create</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log files(SONY, SAMSUNG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log files(SONY, SAMSUNG), Soniya</t>
+  </si>
+  <si>
+    <t>SONY Site records downloaded and testing</t>
   </si>
 </sst>
 </file>
@@ -2680,10 +2689,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2955,10 +2964,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10">
-        <v>44149</v>
+        <v>44179</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>137</v>
@@ -2973,15 +2982,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="28.8">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10">
-        <v>44150</v>
+        <v>44180</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>137</v>
@@ -2999,33 +3008,33 @@
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>44151</v>
+        <v>44181</v>
       </c>
       <c r="C14" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="17">
-        <v>1</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1">
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="28.8">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>44152</v>
+        <v>44182</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>137</v>
@@ -3043,13 +3052,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="10">
-        <v>44153</v>
+        <v>44183</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E16" s="17">
         <v>1</v>
@@ -3058,21 +3067,21 @@
         <v>5</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="28.8">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10">
-        <v>44156</v>
+        <v>44186</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" s="17">
         <v>1</v>
@@ -3081,7 +3090,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="28.8">
@@ -3089,36 +3098,36 @@
         <v>17</v>
       </c>
       <c r="B18" s="10">
-        <v>44157</v>
+        <v>44187</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="17">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:7" ht="28.8">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10">
-        <v>44158</v>
+        <v>44188</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E19" s="17">
         <v>1</v>
@@ -3127,18 +3136,18 @@
         <v>5</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="28.8">
       <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="10">
-        <v>44159</v>
+        <v>44189</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>137</v>
@@ -3149,43 +3158,123 @@
       <c r="F20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="4"/>
-      <c r="C23" t="s">
+      <c r="G20" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44193</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57.6">
+      <c r="A22" s="21">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44194</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8">
+      <c r="A23" s="21">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44195</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="4"/>
+      <c r="C27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="5"/>
-      <c r="C24" t="s">
+    <row r="28" spans="1:7">
+      <c r="B28" s="5"/>
+      <c r="C28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="6"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="7"/>
-      <c r="C26" t="s">
+    <row r="29" spans="1:7">
+      <c r="B29" s="6"/>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="7"/>
+      <c r="C30" t="s">
         <v>10</v>
       </c>
     </row>

--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891F8817-9B98-496C-B7B9-6714BF216B0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AC0E8A-E834-40BF-8C91-F4921FF6F567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="151">
   <si>
     <t>Task</t>
   </si>
@@ -2691,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3231,14 +3231,28 @@
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+    <row r="24" spans="1:7" ht="28.8">
+      <c r="A24" s="21">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44196</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="21"/>

--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AC0E8A-E834-40BF-8C91-F4921FF6F567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A5F7F8-03DD-44EC-B656-34717B3948B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP-2020" sheetId="19" r:id="rId1"/>
     <sheet name="OCT-2020" sheetId="7" r:id="rId2"/>
     <sheet name="NOV-2020" sheetId="20" r:id="rId3"/>
     <sheet name="DEC-2020" sheetId="21" r:id="rId4"/>
+    <sheet name="JAN-2021" sheetId="22" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="155">
   <si>
     <t>Task</t>
   </si>
@@ -481,13 +482,25 @@
   </si>
   <si>
     <t>SONY Site records downloaded and testing</t>
+  </si>
+  <si>
+    <t>AscTax, AscGstTax New Samsung, Sony tasks testing also</t>
+  </si>
+  <si>
+    <t>Nmvar Changes request</t>
+  </si>
+  <si>
+    <t>Nmvar Chages and exe create(All modules)</t>
+  </si>
+  <si>
+    <t>Nmvar exe Testing, Sony Testing(QMVAR TO GSPN)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +542,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -636,7 +655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -698,6 +717,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2691,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C998E79-1753-4603-A30E-674E94B3627C}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3296,4 +3317,195 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD7D29F-EBFE-4591-BDA4-8E1F8A28FAD0}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="45.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44200</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="17">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44201</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44202</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44203</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.8">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44204</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="C17" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="5"/>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="6"/>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="7"/>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A5F7F8-03DD-44EC-B656-34717B3948B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2AAC11-F8CF-4ECC-8B62-BEE5E17549D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="162">
   <si>
     <t>Task</t>
   </si>
@@ -494,6 +494,27 @@
   </si>
   <si>
     <t>Nmvar exe Testing, Sony Testing(QMVAR TO GSPN)</t>
+  </si>
+  <si>
+    <t>Selenium log Files(Sony, Samsung)</t>
+  </si>
+  <si>
+    <t>Unable to import, Issue Find(Sony Daily Claim)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selenium log Files(Sony, Samsung), GitHub </t>
+  </si>
+  <si>
+    <t>GitHub Pull and Push</t>
+  </si>
+  <si>
+    <t>Selenium log Files(Sony, Samsung), Git Hub</t>
+  </si>
+  <si>
+    <t>Git Hub Admin Testing(User Privilage)</t>
+  </si>
+  <si>
+    <t>Selenium log file Testing (QMVAR TO GSPN), Git Hub</t>
   </si>
 </sst>
 </file>
@@ -3324,7 +3345,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3476,6 +3497,75 @@
         <v>154</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="28.8">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44207</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44208</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44209</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="17" spans="2:3">
       <c r="C17" s="8" t="s">
         <v>1</v>

--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2AAC11-F8CF-4ECC-8B62-BEE5E17549D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915AF58D-9DA8-4E82-8AD6-EC435E461485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="172">
   <si>
     <t>Task</t>
   </si>
@@ -515,6 +515,36 @@
   </si>
   <si>
     <t>Selenium log file Testing (QMVAR TO GSPN), Git Hub</t>
+  </si>
+  <si>
+    <t>Selenium log Files(Sony, Samsung), Soniya</t>
+  </si>
+  <si>
+    <t>Selenium log file Testing (QMVAR TO GSPN</t>
+  </si>
+  <si>
+    <t>Soniya setup Create(Modification)</t>
+  </si>
+  <si>
+    <t>Git Hub Upload Soniya Project Modules</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0</t>
+  </si>
+  <si>
+    <t>Selenium log Files(Sony, Samsung), QMVAR 2.0</t>
+  </si>
+  <si>
+    <t>SETUP ADD USER</t>
+  </si>
+  <si>
+    <t>Module, logic Create</t>
+  </si>
+  <si>
+    <t>GridView Completed</t>
+  </si>
+  <si>
+    <t>Create setup user completed</t>
   </si>
 </sst>
 </file>
@@ -3344,8 +3374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD7D29F-EBFE-4591-BDA4-8E1F8A28FAD0}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3566,6 +3596,121 @@
         <v>160</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="28.8">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44214</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44215</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="27">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44216</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8">
+      <c r="A13" s="27">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44217</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.8">
+      <c r="A14" s="27">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44218</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
     <row r="17" spans="2:3">
       <c r="C17" s="8" t="s">
         <v>1</v>

--- a/REVER_DailyTracker_Prabu.xlsx
+++ b/REVER_DailyTracker_Prabu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rever\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Prabhu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915AF58D-9DA8-4E82-8AD6-EC435E461485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC7441D-5383-4C6D-927A-3352336F2688}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="178">
   <si>
     <t>Task</t>
   </si>
@@ -545,6 +545,24 @@
   </si>
   <si>
     <t>Create setup user completed</t>
+  </si>
+  <si>
+    <t>Laptop SSD changing</t>
+  </si>
+  <si>
+    <t>Laptop Service</t>
+  </si>
+  <si>
+    <t>Laptop Software installed</t>
+  </si>
+  <si>
+    <t>QMVAR 2.0, Sony samsung testing</t>
+  </si>
+  <si>
+    <t>Working View patr setup users</t>
+  </si>
+  <si>
+    <t>Setup User View part</t>
   </si>
 </sst>
 </file>
@@ -3372,10 +3390,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD7D29F-EBFE-4591-BDA4-8E1F8A28FAD0}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3711,32 +3729,93 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="C17" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="4"/>
-      <c r="C18" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="27">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44221</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="27">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44223</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="27">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44225</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" s="4"/>
+      <c r="C21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="5"/>
-      <c r="C19" t="s">
+    <row r="22" spans="1:7">
+      <c r="B22" s="5"/>
+      <c r="C22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="6"/>
-      <c r="C20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="7"/>
-      <c r="C21" t="s">
+    <row r="23" spans="1:7">
+      <c r="B23" s="6"/>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="7"/>
+      <c r="C24" t="s">
         <v>10</v>
       </c>
     </row>
